--- a/tests/web/web.xlsx
+++ b/tests/web/web.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fz/Dev/xlwings/tests/web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844C53F7-D0B2-4C48-AF44-247E79CF40BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407905D2-76F4-B74D-B73E-68BD8EDF6525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="500" windowWidth="17440" windowHeight="21900" xr2:uid="{122BE06B-C62B-364D-8C27-94A5A3A52BCE}"/>
+    <workbookView xWindow="960" yWindow="500" windowWidth="34880" windowHeight="21900" xr2:uid="{122BE06B-C62B-364D-8C27-94A5A3A52BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,15 +411,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AA9B18-AFFC-9544-8659-FB47B0FA3630}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +429,7 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -445,7 +443,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -457,12 +455,11 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/web/web.xlsx
+++ b/tests/web/web.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fz/Dev/xlwings/tests/web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407905D2-76F4-B74D-B73E-68BD8EDF6525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B754D06-3B75-604D-BA26-D9898E1F3E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="500" windowWidth="34880" windowHeight="21900" xr2:uid="{122BE06B-C62B-364D-8C27-94A5A3A52BCE}"/>
+    <workbookView xWindow="-3960" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{122BE06B-C62B-364D-8C27-94A5A3A52BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>a</t>
   </si>
@@ -50,6 +51,9 @@
   </si>
   <si>
     <t>bb</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
@@ -91,11 +95,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,6 +473,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2237E062-9D37-5C43-99E9-C6517B4F3227}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -495,4 +501,53 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AC4EFC-891E-1B4E-9A24-63D5B780448D}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>44470</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44561.982638888891</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>